--- a/data/Stock TBP.xlsx
+++ b/data/Stock TBP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/544495d6dcfbd9ff/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QT Model Training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9931E535-CE2E-42DC-965A-160AF65822F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E4447-AE82-4F58-B0EE-146EB42A9907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89FD7DE3-8BAD-4086-AC32-F452AB012B7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>開盤日期</t>
   </si>
@@ -71,18 +71,6 @@
     <t>盤前 (%)</t>
   </si>
   <si>
-    <t>#開盤 (%)</t>
-  </si>
-  <si>
-    <t>#10分鐘低價 (%)</t>
-  </si>
-  <si>
-    <t>#1.5小時高價 (%)</t>
-  </si>
-  <si>
-    <t>#最高價前的最低價 (%)</t>
-  </si>
-  <si>
     <t>觸發類型</t>
   </si>
   <si>
@@ -135,6 +123,114 @@
   </si>
   <si>
     <t>[51.5, 47.9, 43.2, 40.4, 40.5, 40.2, 39.5, 38.5, 37.6, 36.2, 35.5, 32.8, 34.6, 36.4, 38.0, 40.0, 43.8, 48.4, 51.4, 53.9, 56.8, 59.7, 61.8, 64.1, 66.0, 70.4, 70.7, 69.7, 66.6, 63.5, 58.6, 53.3, 47.9, 42.8, 39.2, 34.5, 29.9, 26.3, 24.0, 21.4, 19.6, 18.1, 17.2, 16.7, 17.4, 19.0, 19.1, 18.9, 16.9, 16.3, 17.3, 17.8, 18.3, 20.0, 21.2, 23.5, 26.2, 28.5, 31.0, 31.2, 35.3, 39.7, 43.4, 45.4, 44.8, 45.1, 43.1, 39.6, 37.1, 34.7, 34.5, 34.5, 33.8, 35.0, 33.5, 32.0, 31.7, 33.7, 38.4, 39.9, 43.3, 46.1, 47.1, 47.6, 45.1, 44.8, 45.4, 45.7, 45.4, 44.4, 42.6, 40.1, 36.7, 34.3, 30.3, 27.9, 26.7, 26.6, 27.8, 27.7, 29.2, 30.2, 32.5, 35.7, 37.9, 39.9, 41.0, 41.9, 43.6, 44.8, 45.2, 45.2, 46.4, 45.5, 40.9, 36.1, 31.6, 26.6, 23.5, 22.4]</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>[45.3, 49.0, 44.0, 46.3, 26.8]</t>
+  </si>
+  <si>
+    <t>[48.3, 46.6, 44.6, 41.7, 40.8]</t>
+  </si>
+  <si>
+    <t>[44.8, 45.0, 47.4, 56.8, 48.3, 42.8, 49.5, 51.3, 51.4, 57.9, 64.4, 70.0, 64.2, 69.7, 67.7, 70.0, 70.1, 70.3, 81.5, 85.3, 84.5, 71.3, 63.7, 55.4, 47.8, 45.3, 49.0, 44.0, 46.3, 26.8]</t>
+  </si>
+  <si>
+    <t>[29.7, 28.9, 28.0, 27.5, 27.0, 26.6, 24.6, 21.8, 19.4, 17.0, 16.8, 19.5, 22.8, 25.3, 27.8, 30.9, 32.9, 35.4, 38.6, 42.4, 46.8, 49.1, 50.8, 51.1, 50.3, 48.3, 46.6, 44.6, 41.7, 40.8]</t>
+  </si>
+  <si>
+    <t>[46.1, 52.9, 47.4, 49.4, 49.9, 51.4, 53.3, 53.7, 70.0, 71.2, 61.2, 58.0, 56.8, 63.1, 67.3, 65.0, 71.4, 64.5, 72.8, 67.5, 78.4, 76.3, 72.8, 70.3, 66.6, 62.4, 56.8, 44.8, 46.7, 41.1, 41.8, 47.7, 46.6, 50.9, 35.0, 43.0, 42.0, 47.9, 57.8, 41.4, 46.4, 54.7, 54.3, 57.6, 57.2, 44.7, 41.1, 37.2, 40.0, 33.4, 34.9, 36.3, 33.1, 42.2, 36.8, 35.9, 31.2, 27.8, 12.7, 13.8, 20.4, 20.9, 19.4, 19.1, 15.3, 8.6, 9.6, 9.9, 9.6, 12.0, 14.1, 15.3, 47.6, 54.7, 42.1, 40.9, 54.9, 64.7, 66.5, 58.2, 58.0, 63.9, 69.6, 62.9, 64.4, 63.4, 58.3, 52.4, 57.5, 60.3, 44.8, 45.0, 47.4, 56.8, 48.3, 42.8, 49.5, 51.3, 51.4, 57.9, 64.4, 70.0, 64.2, 69.7, 67.7, 70.0, 70.1, 70.3, 81.5, 85.3, 84.5, 71.3, 63.7, 55.4, 47.8, 45.3, 49.0, 44.0, 46.3, 26.8]</t>
+  </si>
+  <si>
+    <t>[24.5, 23.1, 21.4, 18.2, 15.5, 13.2, 11.8, 11.1, 11.2, 12.3, 13.9, 13.9, 14.7, 16.0, 17.4, 19.3, 20.8, 21.9, 23.9, 26.4, 30.2, 34.2, 34.5, 34.1, 34.3, 36.2, 37.2, 36.2, 35.7, 35.2, 34.5, 32.8, 30.4, 28.2, 25.3, 22.2, 20.1, 17.3, 15.3, 13.6, 12.7, 12.6, 11.5, 10.7, 9.9, 11.3, 12.4, 13.7, 14.8, 16.0, 16.7, 19.2, 21.6, 22.1, 22.9, 23.8, 26.4, 28.6, 33.4, 37.2, 40.4, 43.0, 45.4, 48.0, 50.8, 53.5, 56.3, 60.3, 64.1, 68.0, 70.0, 72.9, 69.2, 64.3, 59.9, 55.9, 52.1, 49.2, 47.3, 43.6, 40.3, 37.0, 34.7, 32.2, 29.8, 27.1, 27.8, 28.3, 28.3, 28.7, 29.7, 28.9, 28.0, 27.5, 27.0, 26.6, 24.6, 21.8, 19.4, 17.0, 16.8, 19.5, 22.8, 25.3, 27.8, 30.9, 32.9, 35.4, 38.6, 42.4, 46.8, 49.1, 50.8, 51.1, 50.3, 48.3, 46.6, 44.6, 41.7, 40.8]</t>
+  </si>
+  <si>
+    <t>LQDT</t>
+  </si>
+  <si>
+    <t>[59.8, 63.2, 47.9, 48.2, 59.0]</t>
+  </si>
+  <si>
+    <t>[15.9, 16.6, 14.9, 13.8, 14.1]</t>
+  </si>
+  <si>
+    <t>[59.7, 62.3, 63.7, 67.1, 56.1, 34.9, 29.0, 40.5, 42.2, 41.3, 47.5, 46.4, 50.6, 58.2, 56.5, 59.1, 51.4, 45.8, 54.4, 69.0, 78.1, 66.2, 67.0, 61.6, 63.3, 59.8, 63.2, 47.9, 48.2, 59.0]</t>
+  </si>
+  <si>
+    <t>[63.5, 61.5, 59.0, 56.2, 52.8, 47.3, 43.5, 40.4, 37.6, 36.7, 36.1, 33.9, 32.4, 30.4, 28.7, 27.0, 25.0, 24.4, 24.5, 24.0, 22.9, 21.7, 19.6, 18.1, 17.0, 15.9, 16.6, 14.9, 13.8, 14.1]</t>
+  </si>
+  <si>
+    <t>[58.2, 58.6, 58.9, 61.6, 68.6, 69.5, 63.7, 60.8, 69.7, 68.3, 66.7, 59.2, 52.1, 56.2, 63.6, 62.0, 57.7, 63.2, 59.8, 49.7, 61.8, 66.7, 65.5, 68.7, 61.0, 67.6, 60.7, 56.7, 56.4, 53.7, 63.9, 55.2, 52.7, 48.8, 48.8, 36.8, 25.8, 14.8, 14.6, 11.9, 26.8, 25.1, 24.2, 23.7, 20.9, 27.2, 29.9, 31.3, 31.2, 35.3, 41.2, 49.6, 48.9, 55.4, 46.0, 45.0, 44.6, 50.9, 41.2, 40.2, 43.6, 47.1, 44.5, 38.2, 42.5, 36.3, 42.8, 41.4, 59.5, 69.5, 74.6, 76.9, 85.3, 83.3, 80.7, 76.8, 78.1, 80.6, 81.3, 88.8, 89.3, 89.9, 86.3, 81.5, 79.1, 71.7, 64.6, 68.7, 69.1, 65.0, 59.7, 62.3, 63.7, 67.1, 56.1, 34.9, 29.0, 40.5, 42.2, 41.3, 47.5, 46.4, 50.6, 58.2, 56.5, 59.1, 51.4, 45.8, 54.4, 69.0, 78.1, 66.2, 67.0, 61.6, 63.3, 59.8, 63.2, 47.9, 48.2, 59.0]</t>
+  </si>
+  <si>
+    <t>[18.2, 17.8, 15.7, 13.8, 13.6, 13.6, 13.2, 12.3, 13.9, 17.7, 20.9, 23.5, 23.8, 24.5, 26.9, 29.2, 31.7, 35.0, 36.8, 36.1, 36.1, 37.6, 39.4, 40.1, 41.1, 42.5, 46.8, 50.1, 50.9, 52.3, 54.0, 54.4, 54.5, 56.4, 58.2, 57.8, 56.6, 56.0, 56.0, 56.7, 55.6, 54.8, 54.8, 55.0, 55.5, 55.5, 55.5, 55.4, 55.0, 55.5, 54.1, 50.4, 46.5, 41.8, 38.3, 34.8, 31.8, 27.6, 25.1, 24.0, 23.3, 22.0, 21.4, 21.5, 22.6, 25.4, 27.2, 29.9, 31.1, 32.6, 34.5, 37.5, 40.4, 42.0, 43.9, 46.1, 47.9, 49.5, 51.8, 54.6, 58.0, 61.5, 64.9, 68.0, 70.0, 69.3, 66.8, 66.4, 64.7, 64.3, 63.5, 61.5, 59.0, 56.2, 52.8, 47.3, 43.5, 40.4, 37.6, 36.7, 36.1, 33.9, 32.4, 30.4, 28.7, 27.0, 25.0, 24.4, 24.5, 24.0, 22.9, 21.7, 19.6, 18.1, 17.0, 15.9, 16.6, 14.9, 13.8, 14.1]</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>[58.3, 57.3, 58.9, 59.5, 72.5]</t>
+  </si>
+  <si>
+    <t>[37.1, 38.2, 39.5, 37.7, 38.0]</t>
+  </si>
+  <si>
+    <t>[54.1, 54.8, 53.8, 50.0, 56.5, 53.8, 51.7, 46.5, 28.7, 31.2, 41.7, 51.6, 56.1, 64.3, 76.4, 76.2, 70.1, 78.8, 71.2, 61.4, 61.5, 63.5, 66.3, 65.9, 58.5, 58.3, 57.3, 58.9, 59.5, 72.5]</t>
+  </si>
+  <si>
+    <t>[14.8, 14.2, 13.5, 14.5, 13.6, 12.5, 12.2, 12.2, 16.2, 20.9, 23.9, 24.2, 24.5, 25.0, 27.5, 30.5, 32.7, 35.9, 39.0, 40.8, 41.6, 42.1, 40.0, 37.8, 36.8, 37.1, 38.2, 39.5, 37.7, 38.0]</t>
+  </si>
+  <si>
+    <t>[41.9, 39.5, 39.1, 44.5, 35.2, 36.8, 37.7, 43.8, 42.8, 45.1, 69.9, 71.1, 63.2, 63.8, 66.7, 68.9, 65.8, 58.7, 64.8, 59.2, 62.7, 70.6, 68.8, 67.9, 64.2, 64.4, 63.0, 62.2, 49.6, 51.0, 44.6, 52.1, 54.6, 55.7, 61.7, 52.6, 55.3, 60.6, 53.7, 49.7, 47.6, 47.7, 61.1, 47.9, 56.6, 48.4, 44.5, 40.8, 20.1, 18.2, 25.2, 20.7, 19.2, 17.0, 17.8, 13.8, 17.1, 27.8, 24.5, 30.9, 29.7, 37.0, 46.5, 48.6, 47.5, 50.1, 60.5, 66.1, 68.9, 86.8, 84.6, 83.0, 90.8, 89.2, 84.6, 73.9, 59.1, 62.8, 60.5, 54.1, 39.4, 44.1, 47.5, 38.9, 54.7, 52.9, 51.6, 50.2, 59.5, 58.0, 54.1, 54.8, 53.8, 50.0, 56.5, 53.8, 51.7, 46.5, 28.7, 31.2, 41.7, 51.6, 56.1, 64.3, 76.4, 76.2, 70.1, 78.8, 71.2, 61.4, 61.5, 63.5, 66.3, 65.9, 58.5, 58.3, 57.3, 58.9, 59.5, 72.5]</t>
+  </si>
+  <si>
+    <t>[49.1, 44.2, 39.8, 34.9, 30.9, 26.2, 21.6, 17.0, 12.6, 9.9, 12.4, 15.6, 17.4, 19.7, 22.2, 24.4, 24.7, 24.3, 23.8, 23.0, 21.9, 23.2, 24.9, 26.5, 25.0, 23.4, 22.9, 22.5, 19.8, 17.3, 15.8, 16.3, 16.2, 17.7, 19.8, 18.7, 17.9, 17.8, 17.0, 15.3, 14.7, 14.6, 15.0, 15.2, 14.8, 14.3, 14.0, 13.9, 15.5, 19.4, 23.7, 26.4, 30.7, 36.3, 40.3, 43.9, 48.9, 54.1, 59.1, 63.9, 68.5, 70.4, 68.4, 65.2, 61.4, 57.3, 52.4, 49.5, 47.1, 46.5, 45.9, 45.3, 45.0, 45.1, 45.5, 45.2, 45.4, 45.4, 45.7, 45.5, 46.8, 45.6, 44.2, 41.3, 36.8, 32.2, 27.9, 24.1, 18.6, 16.0, 14.8, 14.2, 13.5, 14.5, 13.6, 12.5, 12.2, 12.2, 16.2, 20.9, 23.9, 24.2, 24.5, 25.0, 27.5, 30.5, 32.7, 35.9, 39.0, 40.8, 41.6, 42.1, 40.0, 37.8, 36.8, 37.1, 38.2, 39.5, 37.7, 38.0]</t>
+  </si>
+  <si>
+    <t>PRLB</t>
+  </si>
+  <si>
+    <t>[41.5, 45.4, 48.5, 49.1, 39.5]</t>
+  </si>
+  <si>
+    <t>[17.4, 15.7, 15.3, 16.3, 15.9]</t>
+  </si>
+  <si>
+    <t>[63.1, 59.9, 54.3, 61.3, 53.0, 35.6, 35.5, 52.8, 59.7, 56.2, 63.9, 61.7, 64.2, 55.9, 52.9, 59.5, 60.4, 53.2, 64.7, 69.0, 59.4, 49.7, 43.1, 41.9, 42.6, 41.5, 45.4, 48.5, 49.1, 39.5]</t>
+  </si>
+  <si>
+    <t>[40.9, 41.2, 39.8, 38.9, 37.2, 35.1, 34.5, 30.8, 28.1, 26.8, 26.3, 25.8, 24.9, 22.3, 19.5, 17.9, 19.1, 18.2, 18.5, 20.4, 18.8, 19.4, 19.0, 18.6, 18.0, 17.4, 15.7, 15.3, 16.3, 15.9]</t>
+  </si>
+  <si>
+    <t>[81.4, 81.2, 86.5, 73.5, 74.8, 79.4, 76.3, 72.4, 70.9, 69.5, 65.9, 56.8, 49.2, 63.4, 60.2, 60.6, 55.5, 56.9, 60.3, 42.3, 45.2, 46.0, 40.3, 50.7, 54.4, 61.9, 60.7, 45.0, 45.6, 50.8, 50.3, 55.8, 42.8, 52.6, 50.0, 56.1, 52.1, 46.8, 42.5, 36.9, 50.8, 60.2, 69.1, 63.5, 57.5, 60.3, 64.8, 59.1, 64.3, 60.4, 62.1, 58.4, 59.8, 63.1, 46.6, 53.6, 35.2, 40.3, 42.4, 39.1, 38.0, 41.4, 35.7, 35.5, 34.9, 33.9, 35.7, 34.5, 40.8, 33.8, 55.1, 55.1, 63.1, 61.2, 55.6, 53.7, 57.3, 64.3, 70.2, 72.1, 72.9, 76.2, 80.6, 70.5, 67.9, 62.8, 59.6, 60.8, 63.6, 67.1, 63.1, 59.9, 54.3, 61.3, 53.0, 35.6, 35.5, 52.8, 59.7, 56.2, 63.9, 61.7, 64.2, 55.9, 52.9, 59.5, 60.4, 53.2, 64.7, 69.0, 59.4, 49.7, 43.1, 41.9, 42.6, 41.5, 45.4, 48.5, 49.1, 39.5]</t>
+  </si>
+  <si>
+    <t>[57.0, 61.9, 66.3, 69.0, 70.4, 72.2, 73.2, 74.1, 73.1, 71.1, 68.9, 65.1, 59.7, 54.6, 50.5, 46.0, 40.3, 36.5, 34.3, 30.1, 25.8, 22.5, 18.8, 16.3, 15.3, 17.2, 20.5, 20.3, 19.3, 18.6, 19.3, 19.9, 18.6, 18.7, 19.4, 19.4, 20.8, 21.0, 19.5, 16.5, 13.1, 14.6, 18.1, 21.3, 22.5, 23.3, 25.9, 28.1, 30.2, 32.5, 33.8, 35.2, 36.9, 39.1, 40.3, 39.9, 39.7, 40.1, 41.7, 43.3, 44.3, 45.5, 46.9, 48.4, 50.7, 53.6, 56.8, 58.8, 58.5, 57.4, 53.7, 50.2, 47.8, 45.3, 41.4, 37.9, 33.6, 30.4, 27.3, 24.8, 23.0, 22.3, 24.9, 27.9, 31.1, 32.6, 32.8, 33.3, 36.0, 38.6, 40.9, 41.2, 39.8, 38.9, 37.2, 35.1, 34.5, 30.8, 28.1, 26.8, 26.3, 25.8, 24.9, 22.3, 19.5, 17.9, 19.1, 18.2, 18.5, 20.4, 18.8, 19.4, 19.0, 18.6, 18.0, 17.4, 15.7, 15.3, 16.3, 15.9]</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>[41.9, 39.7, 25.0, 24.8, 19.9]</t>
+  </si>
+  <si>
+    <t>[12.3, 10.1, 13.7, 17.3, 21.2]</t>
+  </si>
+  <si>
+    <t>[28.6, 21.9, 19.4, 13.9, 9.6, 11.7, 11.7, 18.2, 13.8, 14.5, 13.6, 14.8, 34.3, 55.7, 53.7, 55.2, 58.8, 46.3, 42.2, 42.0, 41.5, 41.2, 45.0, 48.5, 52.5, 41.9, 39.7, 25.0, 24.8, 19.9]</t>
+  </si>
+  <si>
+    <t>[24.1, 25.4, 28.4, 31.3, 35.4, 40.1, 45.2, 48.6, 52.3, 55.8, 60.0, 63.4, 64.3, 61.5, 59.6, 56.9, 53.9, 49.2, 44.3, 39.8, 34.9, 31.9, 27.3, 22.8, 17.7, 12.3, 10.1, 13.7, 17.3, 21.2]</t>
+  </si>
+  <si>
+    <t>[47.5, 51.1, 45.0, 32.3, 38.8, 34.4, 47.5, 38.0, 40.5, 47.7, 42.3, 48.8, 57.4, 54.8, 62.5, 60.8, 66.4, 67.1, 73.6, 71.9, 69.0, 66.2, 69.5, 65.2, 69.9, 67.2, 47.4, 57.9, 60.8, 64.7, 69.0, 60.3, 51.7, 50.3, 31.4, 38.4, 37.6, 38.8, 39.8, 38.0, 44.8, 50.2, 57.0, 49.4, 39.9, 45.6, 48.8, 43.7, 59.6, 52.2, 55.6, 58.5, 60.3, 37.6, 36.8, 27.1, 18.3, 19.0, 19.3, 24.6, 24.7, 26.9, 24.9, 24.1, 24.4, 19.0, 16.3, 24.9, 19.5, 21.7, 27.6, 30.7, 35.5, 27.6, 27.8, 28.5, 27.1, 38.7, 38.8, 43.3, 45.1, 44.7, 55.8, 48.6, 43.1, 43.1, 37.0, 28.5, 27.7, 27.9, 28.6, 21.9, 19.4, 13.9, 9.6, 11.7, 11.7, 18.2, 13.8, 14.5, 13.6, 14.8, 34.3, 55.7, 53.7, 55.2, 58.8, 46.3, 42.2, 42.0, 41.5, 41.2, 45.0, 48.5, 52.5, 41.9, 39.7, 25.0, 24.8, 19.9]</t>
+  </si>
+  <si>
+    <t>[34.2, 32.3, 29.2, 28.3, 28.4, 28.2, 26.7, 25.8, 25.3, 24.5, 23.3, 21.8, 19.9, 18.5, 21.1, 22.7, 25.2, 24.2, 25.1, 26.2, 28.8, 30.6, 30.7, 31.3, 32.1, 33.1, 34.1, 34.3, 31.9, 30.5, 29.1, 26.4, 23.0, 20.3, 20.5, 20.8, 21.8, 22.8, 23.7, 22.8, 23.4, 22.9, 23.6, 23.1, 22.7, 23.0, 23.2, 23.2, 21.2, 19.5, 18.4, 17.6, 16.6, 16.9, 17.3, 21.3, 25.8, 30.9, 35.2, 39.1, 42.6, 45.6, 48.2, 51.2, 54.3, 58.0, 61.8, 64.5, 67.5, 68.2, 67.2, 66.1, 63.5, 62.8, 63.0, 62.8, 62.6, 60.5, 57.4, 53.8, 49.6, 45.5, 40.8, 36.7, 33.0, 29.8, 28.9, 27.7, 25.9, 25.2, 24.1, 25.4, 28.4, 31.3, 35.4, 40.1, 45.2, 48.6, 52.3, 55.8, 60.0, 63.4, 64.3, 61.5, 59.6, 56.9, 53.9, 49.2, 44.3, 39.8, 34.9, 31.9, 27.3, 22.8, 17.7, 12.3, 10.1, 13.7, 17.3, 21.2]</t>
   </si>
 </sst>
 </file>
@@ -222,18 +318,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,166 +648,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130C6F2E-F9EC-459F-BBE7-118406487D71}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46" s="5" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AI1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AO1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AP1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AR1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AS1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AT1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="K2">
+        <v>46058</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>37</v>
+      </c>
+      <c r="N2">
+        <v>-1.8</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>-10.1</v>
+      </c>
+      <c r="Q2">
+        <v>11.3</v>
+      </c>
+      <c r="R2">
+        <v>-42.3</v>
+      </c>
+      <c r="S2">
+        <v>23.7</v>
+      </c>
+      <c r="T2">
+        <v>84.63</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="Z2">
+        <v>11.508921186340553</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0.89</v>
+      </c>
+      <c r="AL2">
+        <v>72.2</v>
+      </c>
+      <c r="AM2">
+        <v>6</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>46058</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>-3.6</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-3.6</v>
+      </c>
+      <c r="Q3">
+        <v>6.4</v>
+      </c>
+      <c r="R3">
+        <v>-3.6</v>
+      </c>
+      <c r="S3">
+        <v>42</v>
+      </c>
+      <c r="T3">
+        <v>31.47</v>
+      </c>
+      <c r="Z3">
+        <v>5.4655227200508385</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0.78</v>
+      </c>
+      <c r="AL3">
+        <v>25.8</v>
+      </c>
+      <c r="AM3">
+        <v>1.2</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>46058</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <v>44</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.8</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>27.8</v>
+      </c>
+      <c r="T4">
+        <v>205.79</v>
+      </c>
+      <c r="Z4">
+        <v>6.61353807279266</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0.85</v>
+      </c>
+      <c r="AL4">
+        <v>21.3</v>
+      </c>
+      <c r="AM4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>46058</v>
+      </c>
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>-3.4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-3.4</v>
+      </c>
+      <c r="Q5">
+        <v>7.1</v>
+      </c>
+      <c r="R5">
+        <v>-3.4</v>
+      </c>
+      <c r="S5">
+        <v>66.8</v>
+      </c>
+      <c r="T5">
+        <v>333.34</v>
+      </c>
+      <c r="Z5">
+        <v>-6.2458750824983484</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0.3</v>
+      </c>
+      <c r="AL5">
+        <v>9.73</v>
+      </c>
+      <c r="AM5">
+        <v>2.58</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AP5" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AQ5" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5">
+      <c r="AR5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>46059</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>14</v>
+      <c r="P6">
+        <v>-5.3</v>
+      </c>
+      <c r="Q6">
+        <v>3.7</v>
+      </c>
+      <c r="R6">
+        <v>-5.3</v>
+      </c>
+      <c r="S6">
+        <v>12.1</v>
+      </c>
+      <c r="T6">
+        <v>52.48</v>
+      </c>
+      <c r="Z6">
+        <v>10.899390243902452</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9</v>
+      </c>
+      <c r="AL6">
+        <v>25.7</v>
+      </c>
+      <c r="AM6">
+        <v>5.8</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>46058</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>-3.4</v>
-      </c>
-      <c r="E2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>46059</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>-3.4</v>
-      </c>
-      <c r="G2">
-        <v>7.1</v>
-      </c>
-      <c r="H2">
-        <v>-3.4</v>
-      </c>
-      <c r="I2">
-        <v>66.8</v>
-      </c>
-      <c r="J2">
-        <v>333.34</v>
-      </c>
-      <c r="K2">
-        <v>-6.2458750824983484</v>
-      </c>
-      <c r="L2">
+      <c r="P7">
+        <v>-30.6</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>-57.2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>60.57</v>
+      </c>
+      <c r="Z7">
+        <v>8.3704804358593368</v>
+      </c>
+      <c r="AI7">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0.3</v>
-      </c>
-      <c r="N2">
-        <v>9.73</v>
-      </c>
-      <c r="O2">
-        <v>2.58</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
+      <c r="AJ7">
+        <v>0.9</v>
+      </c>
+      <c r="AL7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AM7">
+        <v>6.2</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
